--- a/src/test/resources/mysmoketestdata (1).xlsx
+++ b/src/test/resources/mysmoketestdata (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\B151CucumberNT\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\B151Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB95FF-A4BE-4601-A358-33720F5B72BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8385" windowHeight="2670" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -56,13 +57,16 @@
   </si>
   <si>
     <t>admin123!</t>
+  </si>
+  <si>
+    <t>jack@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -72,6 +76,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -93,18 +104,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -316,7 +330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -324,12 +338,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -337,7 +351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -345,7 +359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -353,7 +367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -361,7 +375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -375,22 +389,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -406,10 +420,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12345</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{C9FAFB3E-FF22-4875-A382-662C26823251}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>